--- a/Output/R1_201908/Area/USD/TH/CENTRAL & EASTERN EUROPE_201908_USD_TH.xlsx
+++ b/Output/R1_201908/Area/USD/TH/CENTRAL & EASTERN EUROPE_201908_USD_TH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\Output\R1_201908\Area\USD\TH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D655B72-04E5-4BE3-A99B-99F17AAA542B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FB0F67-DF45-4EAB-A833-612D32918EF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="228" windowWidth="20964" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="1572" windowWidth="19572" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD_TH" sheetId="1" r:id="rId1"/>
@@ -2693,8 +2693,8 @@
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
@@ -13813,7 +13813,7 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G73:K73"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
